--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.079</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.9</v>
+        <v>17.317</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.499</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.127</v>
+        <v>21.216</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.053</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.259</v>
+        <v>14.188</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34.91274883083975</v>
+        <v>-1.291583536825208</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39.93819851071164</v>
+        <v>19.63128495301728</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42.1656968126989</v>
+        <v>25.19641090021202</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36.73192904468734</v>
+        <v>-0.4187213137051415</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42.211257707635</v>
+        <v>14.85574103228077</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>44.63193246423833</v>
+        <v>22.10995893076782</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40.95777574552245</v>
+        <v>8.994146079181212</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>45.47501578786841</v>
+        <v>21.74062618490076</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>47.49669574169923</v>
+        <v>27.27201229370682</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>44.72678972446927</v>
+        <v>24.56180679527115</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50.05974454576747</v>
+        <v>30.17525212340212</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>52.75614240453176</v>
+        <v>34.32615838892035</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42.03498398895432</v>
+        <v>4.970756374489017</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50.5928315300351</v>
+        <v>23.14521751219954</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.23939639626565</v>
+        <v>30.76180893338981</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34.89741883973967</v>
+        <v>-3.440266483612355</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39.85277686407739</v>
+        <v>20.05985486913198</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.04463767403169</v>
+        <v>27.27437402637719</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36.62460584185215</v>
+        <v>-6.749286847826728</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42.02745968007967</v>
+        <v>11.49159834844092</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44.40933593032257</v>
+        <v>20.3020149748437</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>40.76634603676087</v>
+        <v>4.896216394275839</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>45.22066005822346</v>
+        <v>19.93003440581207</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.4676617858556</v>
+        <v>6.112737938630488</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.50452696848176</v>
+        <v>29.27826673372973</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.73331112177266</v>
+        <v>34.49611498241829</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>37.33185024184466</v>
+        <v>9.921938022234812</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>42.82355226381185</v>
+        <v>27.41196663513334</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.24559346144712</v>
+        <v>34.26405741336193</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.58037409139504</v>
+        <v>20.13331776005257</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.10790842137697</v>
+        <v>34.80857745803793</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.13070542278359</v>
+        <v>39.98657552345962</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.34821630730316</v>
+        <v>39.26118843406177</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.6926753522208</v>
+        <v>45.36933980352578</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.39092668696765</v>
+        <v>49.53618282086366</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42.63679704774502</v>
+        <v>17.79191281066285</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>51.21362489542836</v>
+        <v>38.52498185732743</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>54.86236886384863</v>
+        <v>45.66434468507518</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35.4433325937343</v>
+        <v>6.771099966768997</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.40994918814173</v>
+        <v>32.72903079002808</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.60311166607303</v>
+        <v>39.72980048398905</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37.21486321460446</v>
+        <v>6.749726288970042</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.62992042126269</v>
+        <v>27.42875258260261</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45.01318089971613</v>
+        <v>35.9766057553048</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.37891572422326</v>
+        <v>19.3635737668134</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.84338333248967</v>
+        <v>36.51159757982748</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35.64028753040918</v>
+        <v>5.972742839136316</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.67549142673952</v>
+        <v>29.52498384828025</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>42.90263631932639</v>
+        <v>34.84071644874109</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37.51409969354623</v>
+        <v>10.66602422270149</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.00397632454597</v>
+        <v>28.60815840359991</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>45.4242231114424</v>
+        <v>35.54133907232175</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.76470171117356</v>
+        <v>20.85566394607189</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.29074993781425</v>
+        <v>35.92843644029104</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.31204339234494</v>
+        <v>41.18354411423619</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.52895381145899</v>
+        <v>40.5871873561828</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50.87141961076331</v>
+        <v>46.77236216415264</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>53.56776455048852</v>
+        <v>51.07896738780965</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.81468538772306</v>
+        <v>18.72907748616205</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.38859053227712</v>
+        <v>39.98387353212038</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>55.03466635516114</v>
+        <v>47.22584872408737</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.61368300770502</v>
+        <v>7.205918354653367</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.5786618740043</v>
+        <v>33.58394184431808</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.77022100436605</v>
+        <v>40.70444910757502</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.39475272486635</v>
+        <v>8.16188684065056</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.80801060451181</v>
+        <v>29.32670128111077</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>45.18951586401781</v>
+        <v>37.97813441171512</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.5608615636431</v>
+        <v>20.76294971639417</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.02386431829213</v>
+        <v>38.33903264260341</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.2393859878784</v>
+        <v>2.088501326738179</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>40.27807160085107</v>
+        <v>24.39211845934795</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>42.50751934925867</v>
+        <v>30.44813406100918</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>37.08820667265104</v>
+        <v>5.470033510528474</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.58189115720007</v>
+        <v>22.16208345397748</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.00467765302188</v>
+        <v>29.91008264403326</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>41.33502549569852</v>
+        <v>14.98415113927905</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.86415343969699</v>
+        <v>28.96024142654025</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.88758092863104</v>
+        <v>34.9237751447715</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>45.10830243537112</v>
+        <v>32.18768843140634</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.45485365003817</v>
+        <v>38.1481995642763</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.15359544066999</v>
+        <v>42.76761624865695</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>42.40064549005069</v>
+        <v>11.29184923499557</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50.98072202900514</v>
+        <v>31.11639977362342</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.63056096553814</v>
+        <v>39.30940930622435</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.21865250085818</v>
+        <v>1.773708911437936</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>40.1870717038875</v>
+        <v>26.80368869404266</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>42.38087178775675</v>
+        <v>34.58368416183664</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.97497809695736</v>
+        <v>1.123075316357319</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.39199950220973</v>
+        <v>20.94348493353942</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>44.77597589915652</v>
+        <v>30.32118988429834</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>41.13736184420524</v>
+        <v>12.94605516898977</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>45.60340822190474</v>
+        <v>29.34681111052265</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>47.2095077184923</v>
+        <v>26.79274717766504</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>44.46900433400619</v>
+        <v>23.29098793657924</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49.72643567546941</v>
+        <v>30.87416391235968</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>52.37775520559676</v>
+        <v>36.18375266274285</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>41.82113141678283</v>
+        <v>2.138338772395979</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>50.25856456608455</v>
+        <v>24.12604113368592</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>53.84914881965482</v>
+        <v>33.16589470139405</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>41.29489164556965</v>
+        <v>-1.508069030133267</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>46.31016946764018</v>
+        <v>24.07120588120495</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>48.52517605584978</v>
+        <v>32.46352690992623</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>43.30025275069855</v>
+        <v>-4.698551891574866</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>48.76893673169575</v>
+        <v>15.98589332821067</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>51.17637015531208</v>
+        <v>26.01616597679538</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>47.72155806613044</v>
+        <v>9.288170284428778</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>52.23291127516993</v>
+        <v>26.45789390868244</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>54.24415031179394</v>
+        <v>34.34518971187517</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.46392026989562</v>
+        <v>33.32228828758055</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>56.80965011364633</v>
+        <v>42.121975840106</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>59.49822228575573</v>
+        <v>48.89316888346355</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>48.77988003569811</v>
+        <v>9.562892232787963</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>57.30684632163514</v>
+        <v>34.32226267800175</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.92818865259888</v>
+        <v>44.84683485152522</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.83336247519249</v>
+        <v>43.14548938114838</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.0804270870817</v>
+        <v>41.5053525973827</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.34921055452295</v>
+        <v>49.60625436765922</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>53.00239870276413</v>
+        <v>54.98825880501656</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.41326594596285</v>
+        <v>18.35667859756968</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.8694151656595</v>
+        <v>43.17017640308889</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>54.4622072614449</v>
+        <v>51.87039466065664</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.85430394171247</v>
+        <v>12.14642947225521</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.8808880350042</v>
+        <v>40.25264944096838</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.09709214480334</v>
+        <v>48.35085305769864</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.90426662303628</v>
+        <v>12.55849008510797</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.3852040912573</v>
+        <v>35.74548596435977</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>51.79390779045518</v>
+        <v>45.43084046139135</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.34833184877331</v>
+        <v>27.60420906335996</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52.86987846401581</v>
+        <v>46.95145467462312</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.88215826488715</v>
+        <v>54.53898338544536</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>52.08937530595655</v>
+        <v>55.53214104184379</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.44649260711267</v>
+        <v>64.83656246627444</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>60.13678154409288</v>
+        <v>71.64680972877717</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>49.38577229547309</v>
+        <v>29.66802283018764</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.931539294115</v>
+        <v>57.32701124123005</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>61.55489874517782</v>
+        <v>67.4246783805753</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>48.01237295433203</v>
+        <v>45.07025047937777</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.25884532477296</v>
+        <v>43.48042936878909</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.52566707150496</v>
+        <v>51.64503552722722</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>53.17699295421217</v>
+        <v>57.18542979237246</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>42.58888207607642</v>
+        <v>19.95815081120844</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.04215046988447</v>
+        <v>45.33073187553727</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>54.63233170157221</v>
+        <v>54.15964741183033</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.02247865516624</v>
+        <v>13.71149473018946</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>47.0473837653956</v>
+        <v>42.24322674189546</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>49.26193547280616</v>
+        <v>50.43280591985351</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>44.08178438233082</v>
+        <v>15.18106706739804</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>49.56087592776224</v>
+        <v>38.85505617101329</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.96777112585784</v>
+        <v>48.61578101671879</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>48.52778101642284</v>
+        <v>30.22574593522073</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>53.04782185908722</v>
+        <v>50.00335522429271</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>55.0585865823392</v>
+        <v>57.66392963650118</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>52.26522815685589</v>
+        <v>58.72497276742102</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>57.62031305474697</v>
+        <v>68.08307386827101</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>60.30866187625944</v>
+        <v>75.03422088031323</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.55879703888775</v>
+        <v>32.46784545324335</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>58.10162259476407</v>
+        <v>60.68728294024832</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>61.72229305543014</v>
+        <v>70.8814518626795</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>47.59399333413458</v>
+        <v>36.70618670895527</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.84420174208898</v>
+        <v>32.93446771745818</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.11505381862902</v>
+        <v>40.88891992946945</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.76870007304416</v>
+        <v>46.72265322965849</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.18070564258636</v>
+        <v>10.48390322187621</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.64007297873451</v>
+        <v>34.3095941539861</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.23391732965749</v>
+        <v>44.00374556131932</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>41.62863027438767</v>
+        <v>6.582827762070696</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>46.65699768798741</v>
+        <v>33.75767635108971</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.87390967857116</v>
+        <v>42.6694085829532</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>43.66354104926222</v>
+        <v>6.208625274553025</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>49.14641676481307</v>
+        <v>28.53693450191529</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.55591729519777</v>
+        <v>39.09010284802815</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.10596204026595</v>
+        <v>20.46564628608802</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.62907001520576</v>
+        <v>39.06113421984966</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.64202140928951</v>
+        <v>47.40630682974344</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.85250551544218</v>
+        <v>46.18101092094926</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>57.21169013011867</v>
+        <v>55.36195723794039</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.90254826504973</v>
+        <v>62.65557956105197</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>49.15276027278635</v>
+        <v>21.00144875404566</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.70169139723959</v>
+        <v>47.67230688802898</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>61.32622437712769</v>
+        <v>58.80229711365661</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.77556176605356</v>
+        <v>0.5280837988345191</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.77457924073003</v>
+        <v>20.8162209132332</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.03987227143507</v>
+        <v>25.71077668173135</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.0103197524314</v>
+        <v>0.4488552796225314</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.45994173449802</v>
+        <v>15.12415248067049</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.92295337658179</v>
+        <v>21.67679539813714</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.99864389893922</v>
+        <v>10.55726516463241</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.48818797220624</v>
+        <v>22.8061643786534</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.54464596025275</v>
+        <v>27.68089570223061</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.03690500932843</v>
+        <v>25.2887800730365</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.31029650530499</v>
+        <v>30.8580190279288</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.07786590475985</v>
+        <v>34.36290192550255</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.60979576106919</v>
+        <v>6.060409115456029</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.13800949762253</v>
+        <v>23.63107529930228</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>41.85018937031811</v>
+        <v>30.3526177493586</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.75497953417624</v>
+        <v>-0.01432056947523819</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.68408242741619</v>
+        <v>23.15491426376498</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.91322937013791</v>
+        <v>29.55607365034627</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.89710521538556</v>
+        <v>-4.060503993385137</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.2704956204026</v>
+        <v>13.88457584806181</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.694118026049</v>
+        <v>21.85554870342332</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.79968892540769</v>
+        <v>8.538544365134921</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.22651547034512</v>
+        <v>23.34928734299747</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.32501486380654</v>
+        <v>6.213460304288457</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.33551937708961</v>
+        <v>28.72602893806034</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.60209412981226</v>
+        <v>33.27200971114203</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>24.60456618080766</v>
+        <v>8.960313071374546</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.06663755156273</v>
+        <v>25.82805624661838</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>32.53101276151983</v>
+        <v>31.98210729743084</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.61559894219955</v>
+        <v>19.79906184223908</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.11549796773074</v>
+        <v>33.96026530373369</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.17306676326433</v>
+        <v>38.48358913407649</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.65286575512703</v>
+        <v>38.03253629130705</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.93788277584531</v>
+        <v>44.09898969185932</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.70735036161377</v>
+        <v>47.62957381691157</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.20621473152</v>
+        <v>16.97354186066597</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.75353547772908</v>
+        <v>37.082132818635</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.46790605558321</v>
+        <v>43.32707709587844</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.29523878713291</v>
+        <v>8.478445662199078</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.23567037725862</v>
+        <v>34.09157032353455</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.46611617380955</v>
+        <v>40.27523830594555</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>24.48148068011801</v>
+        <v>7.624081821306962</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.86714915756189</v>
+        <v>27.98981328724039</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.29215430435734</v>
+        <v>35.69942686489438</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.40639891677136</v>
+        <v>21.12456651765655</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>32.8434385901637</v>
+        <v>38.03813364580186</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.506769231133</v>
+        <v>5.495299620002463</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.51565746102448</v>
+        <v>28.38762667286609</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.78056728800372</v>
+        <v>33.03072609883098</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.79640367282013</v>
+        <v>9.090488451079333</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.25669906799012</v>
+        <v>26.4013576354141</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.71925074320892</v>
+        <v>32.63644633801036</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.80972925810481</v>
+        <v>19.8801753346715</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>33.30818506848074</v>
+        <v>34.43191706441642</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.36422533310503</v>
+        <v>39.03260319864292</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.84320838099264</v>
+        <v>38.72616172423794</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.12631654738917</v>
+        <v>44.86622102481118</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40.89384490419442</v>
+        <v>48.53759518581374</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.39348153335828</v>
+        <v>17.29200782583578</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.93794407334394</v>
+        <v>37.91285263055541</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.6496062569226</v>
+        <v>44.25986793238984</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.47468073777478</v>
+        <v>8.292013063823624</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.41351912451972</v>
+        <v>34.31629541268113</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.64233666721616</v>
+        <v>40.6198827262394</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.67091954726324</v>
+        <v>8.381019369427452</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.05483760444477</v>
+        <v>29.22179503666516</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.47805925023798</v>
+        <v>37.03606125665872</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.5981080237603</v>
+        <v>21.83736375555019</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.03372529590745</v>
+        <v>39.1704784869906</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.0831766462158</v>
+        <v>2.770797784311181</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.09540112108114</v>
+        <v>24.41331372999066</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.3627630289042</v>
+        <v>29.77570170051949</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.34652768318379</v>
+        <v>5.093595605954974</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.81046597627356</v>
+        <v>21.15660687109674</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.27572427021978</v>
+        <v>28.18047936917072</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.35555064862819</v>
+        <v>15.25954770491625</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.85694294955348</v>
+        <v>28.7144949971</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.9152580451948</v>
+        <v>34.00155584353024</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.39846987236236</v>
+        <v>31.61570264744696</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.6854411278114</v>
+        <v>37.52276723289269</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.45554859033367</v>
+        <v>41.47508840227337</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.95584318747827</v>
+        <v>11.11596211776157</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>38.50625462287066</v>
+        <v>30.30572605033323</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.22192823109047</v>
+        <v>37.57384059499883</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.05712064665232</v>
+        <v>3.990048624954813</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.99925682230202</v>
+        <v>28.66290111817442</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.23046198799928</v>
+        <v>35.60435881650284</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.22733574534269</v>
+        <v>2.501921306039385</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.61485562229542</v>
+        <v>21.99661368165217</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.04071248576091</v>
+        <v>30.51055831596797</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.15028355822097</v>
+        <v>15.22916851071693</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.5888039769217</v>
+        <v>31.3837093104442</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.2496645381853</v>
+        <v>29.42779636854506</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.77126490463397</v>
+        <v>26.28416458866795</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.96936597070156</v>
+        <v>34.00385802999596</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.6906172693545</v>
+        <v>38.46026778715269</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.38946515446508</v>
+        <v>5.422129820358375</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>37.7977170885293</v>
+        <v>27.11492982179578</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>41.45303024202418</v>
+        <v>35.10085607123982</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.63186241249235</v>
+        <v>3.919125846929138</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.62263478917148</v>
+        <v>29.36419894419335</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.87492876945493</v>
+        <v>36.92416945670705</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>32.12418324824208</v>
+        <v>-0.3376024691965362</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>37.56500389582106</v>
+        <v>20.25171886035674</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>40.01425190776531</v>
+        <v>29.42630267718103</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.34635281037539</v>
+        <v>14.78744236275825</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>40.83174930101106</v>
+        <v>31.91622563278466</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.87725949475239</v>
+        <v>39.00447814078939</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>40.33000645902334</v>
+        <v>38.07379966083753</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.62085714301067</v>
+        <v>47.09987903828103</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.37960631835249</v>
+        <v>52.99483477749759</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>37.87463257270119</v>
+        <v>14.67502199821405</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>46.37319369311243</v>
+        <v>39.37872533520434</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.05944318539336</v>
+        <v>48.79903292123422</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.86771414792344</v>
+        <v>43.88729091821824</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.37700509177632</v>
+        <v>42.59173230589482</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>37.58657799799403</v>
+        <v>50.83408565658966</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>40.30974218482959</v>
+        <v>55.37522242757041</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.97599514855923</v>
+        <v>19.78298068532088</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.40308809695323</v>
+        <v>44.28640069922761</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.06062243054458</v>
+        <v>51.93081157932289</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.18740892535303</v>
+        <v>15.92843407495396</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.18955695684255</v>
+        <v>43.888108416615</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.44303627039717</v>
+        <v>51.14365332195845</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.72418335084143</v>
+        <v>15.19249410917381</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.17733037468965</v>
+        <v>38.26916464308394</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.62783730818899</v>
+        <v>47.09228867239161</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.96918809250931</v>
+        <v>31.3117567210073</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.46483624644848</v>
+        <v>50.60863957136281</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.51137373883853</v>
+        <v>57.38983920688213</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>40.95168115380959</v>
+        <v>58.46811585828084</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>46.25403639399609</v>
+        <v>68.00460907722999</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.01453857392556</v>
+        <v>73.94319498955331</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.47678381857479</v>
+        <v>33.01374564827456</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.99426602766383</v>
+        <v>60.60465478962303</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.68253187089188</v>
+        <v>69.58582290383212</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.05650608475042</v>
+        <v>45.1180302820175</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.5649893379563</v>
+        <v>43.89727551856072</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.77268438000007</v>
+        <v>52.19899497927948</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>40.49395428553971</v>
+        <v>56.90152040424717</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.16095079489309</v>
+        <v>20.72806596222136</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.5852266516237</v>
+        <v>45.77939031601102</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.24011100974069</v>
+        <v>53.5531970352941</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.36381176415202</v>
+        <v>16.88343016735281</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.3643236258379</v>
+        <v>45.26000230105191</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.61612302617773</v>
+        <v>52.60407410149773</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32.91033943360602</v>
+        <v>17.18187527031054</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.3616875696567</v>
+        <v>40.73537514143726</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.81035494752393</v>
+        <v>49.6316567168097</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.15746712911789</v>
+        <v>33.26688355360298</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.65165032130978</v>
+        <v>52.98599953470746</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.69664616701021</v>
+        <v>59.83844411492288</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.13618563732114</v>
+        <v>61.01647312160597</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.43658815399409</v>
+        <v>70.60351458990689</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>49.19511524246503</v>
+        <v>76.68353207981397</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.65825876271445</v>
+        <v>35.18328601498503</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>47.1728613009975</v>
+        <v>63.32432077617416</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>50.85839494833303</v>
+        <v>72.39877506171759</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.61379964631028</v>
+        <v>37.93696427487468</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.1264360374824</v>
+        <v>34.5756557687554</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.33794229092553</v>
+        <v>42.65823898853004</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.06171237632222</v>
+        <v>47.61701794356672</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.72935100121775</v>
+        <v>12.44556936226242</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.15950821558021</v>
+        <v>35.94552822339938</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.81829996270696</v>
+        <v>44.55394676416995</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.9493433189724</v>
+        <v>10.89484236914636</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.95317330912976</v>
+        <v>37.91514480318249</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.20748890948374</v>
+        <v>45.9636257576792</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.4702909187919</v>
+        <v>9.375930635902405</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.92525962353904</v>
+        <v>31.58569663503745</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.37670606486424</v>
+        <v>41.25289402704631</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.71337405616728</v>
+        <v>24.72248052672252</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>41.21048262461765</v>
+        <v>43.25947550225555</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>43.25781166402366</v>
+        <v>50.77844808893947</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.70155656890336</v>
+        <v>49.70992123475257</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.00584298259378</v>
+        <v>59.11335107188346</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>48.76706745916762</v>
+        <v>65.50401902887914</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.23075278214239</v>
+        <v>24.92501672891856</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>46.75123792309023</v>
+        <v>51.51723606522873</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>50.44089234605032</v>
+        <v>61.50349575992392</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.77556176605356</v>
+        <v>0.04726834594297458</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.77457924073003</v>
+        <v>20.47117372021122</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.03987227143507</v>
+        <v>25.3495667260837</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.0103197524314</v>
+        <v>-0.08765907963804054</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.45994173449802</v>
+        <v>14.71026918369962</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.92295337658179</v>
+        <v>21.24709664485067</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.99864389893922</v>
+        <v>10.10087514298715</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.48818797220624</v>
+        <v>22.45361599195289</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.54464596025275</v>
+        <v>27.31186248565685</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.03690500932843</v>
+        <v>25.16589452157817</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37.31029650530499</v>
+        <v>30.77821353657998</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>40.07786590475985</v>
+        <v>34.26654313305954</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.60979576106919</v>
+        <v>5.772746676730005</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.13800949762253</v>
+        <v>23.4902930495452</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.85018937031811</v>
+        <v>30.18646593364031</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.75497953417624</v>
+        <v>1.225665547786416</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.68408242741619</v>
+        <v>24.5942384367044</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.91322937013791</v>
+        <v>30.9713323496275</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.89710521538556</v>
+        <v>-2.785088263961871</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.2704956204026</v>
+        <v>15.34832718247874</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.694118026049</v>
+        <v>23.2943604370111</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.79968892540769</v>
+        <v>9.947654841083818</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.22651547034512</v>
+        <v>24.91887421298266</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.32501486380654</v>
+        <v>5.780443508036566</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.33551937708961</v>
+        <v>28.44116906454581</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.60209412981226</v>
+        <v>32.96899805239187</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.60456618080766</v>
+        <v>8.482806706751262</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.06663755156273</v>
+        <v>25.48572935142511</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.53101276151983</v>
+        <v>31.62158494991827</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.61559894219955</v>
+        <v>19.40338962265606</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.11549796773074</v>
+        <v>33.67923344191655</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.17306676326433</v>
+        <v>38.1841402033459</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>32.65286575512703</v>
+        <v>37.9869323041297</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.93788277584531</v>
+        <v>44.09974693623954</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.70735036161377</v>
+        <v>47.61229519838428</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.20621473152</v>
+        <v>16.75211005065582</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.75353547772908</v>
+        <v>37.02206585364051</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.46790605558321</v>
+        <v>43.23881680126694</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.29523878713291</v>
+        <v>9.803333932723351</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.23567037725862</v>
+        <v>35.630503421815</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.46611617380955</v>
+        <v>41.78736898943978</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.48148068011801</v>
+        <v>8.998967249157243</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.86714915756189</v>
+        <v>29.56795137315303</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.29215430435734</v>
+        <v>37.249538735702</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.40639891677136</v>
+        <v>22.63583204912407</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.8434385901637</v>
+        <v>39.72275604952611</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.506769231133</v>
+        <v>5.084918751936417</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.51565746102448</v>
+        <v>28.12657138295552</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.78056728800372</v>
+        <v>32.75176239580195</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.79640367282013</v>
+        <v>8.639465428244065</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.25669906799012</v>
+        <v>26.08690877318428</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.71925074320892</v>
+        <v>32.30396851246887</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.80972925810481</v>
+        <v>19.51087730546525</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.30818506848074</v>
+        <v>34.17842868564066</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.36422533310503</v>
+        <v>38.76091462557645</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.84320838099264</v>
+        <v>38.70743953923725</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.12631654738917</v>
+        <v>44.89406591079887</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.89384490419442</v>
+        <v>48.54746839583041</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.39348153335828</v>
+        <v>17.0954523338182</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>38.93794407334394</v>
+        <v>37.87929142047831</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.6496062569226</v>
+        <v>44.19835537960914</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.47468073777478</v>
+        <v>9.633993114665403</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.41351912451972</v>
+        <v>35.87379955142976</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.64233666721616</v>
+        <v>42.15053616780821</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.67091954726324</v>
+        <v>9.777164553171371</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.05483760444477</v>
+        <v>30.82293652429574</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.47805925023798</v>
+        <v>38.6090449478177</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.5981080237603</v>
+        <v>23.36944463398741</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.03372529590745</v>
+        <v>40.87739373462381</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.0831766462158</v>
+        <v>2.349711279728112</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.09540112108114</v>
+        <v>24.13337221006834</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.3627630289042</v>
+        <v>29.48044142026603</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.34652768318379</v>
+        <v>4.627263091044092</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.81046597627356</v>
+        <v>20.81855805574687</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.27572427021978</v>
+        <v>27.82733495306831</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.35555064862819</v>
+        <v>14.87374507114306</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.85694294955348</v>
+        <v>28.43729327530232</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.9152580451948</v>
+        <v>33.70864835585363</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.39846987236236</v>
+        <v>31.57040827122482</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.6854411278114</v>
+        <v>37.52166285958535</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.45554859033367</v>
+        <v>41.45745503962286</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.95584318747827</v>
+        <v>10.89758347997303</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.50625462287066</v>
+        <v>30.24086525313048</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>42.22192823109047</v>
+        <v>37.48436740186987</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.05712064665232</v>
+        <v>5.313805575808164</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.99925682230202</v>
+        <v>30.19340722036209</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.23046198799928</v>
+        <v>37.1107747349655</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.22733574534269</v>
+        <v>3.874551543315992</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.61485562229542</v>
+        <v>23.56541060673958</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.04071248576091</v>
+        <v>32.05418223006361</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.15028355822097</v>
+        <v>16.73605072230571</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.5888039769217</v>
+        <v>33.05771719963882</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.2496645381853</v>
+        <v>30.97352017278735</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.77126490463397</v>
+        <v>28.01086285144098</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.96936597070156</v>
+        <v>35.79555397884356</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.6906172693545</v>
+        <v>40.2203057126703</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.38946515446508</v>
+        <v>6.914892384958918</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>37.7977170885293</v>
+        <v>28.82917498932721</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.45303024202418</v>
+        <v>36.77670135000351</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.63186241249235</v>
+        <v>5.218153162112149</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.62263478917148</v>
+        <v>30.87011714432555</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.87492876945493</v>
+        <v>38.40298238786575</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.12418324824208</v>
+        <v>0.9714276831609112</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.56500389582106</v>
+        <v>21.75508706385252</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>40.01425190776531</v>
+        <v>30.90411050233818</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.34635281037539</v>
+        <v>16.24517004733799</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.83174930101106</v>
+        <v>33.54052068875061</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.87725949475239</v>
+        <v>40.60365028099316</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>40.33000645902334</v>
+        <v>39.84291688784733</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.62085714301067</v>
+        <v>48.93598230227546</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.37960631835249</v>
+        <v>54.79509913889476</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>37.87463257270119</v>
+        <v>16.18832991860745</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>46.37319369311243</v>
+        <v>41.12126834891409</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.05944318539336</v>
+        <v>50.50155730321362</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.86771414792344</v>
+        <v>45.54546341244722</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.37700509177632</v>
+        <v>44.4376465557523</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>37.58657799799403</v>
+        <v>52.74900775630345</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.30974218482959</v>
+        <v>57.25630325085832</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.97599514855923</v>
+        <v>21.3821997331188</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.40308809695323</v>
+        <v>46.12426878609412</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.06062243054458</v>
+        <v>53.72662481778892</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.18740892535303</v>
+        <v>17.32234082187534</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.18955695684255</v>
+        <v>45.50491305768656</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.44303627039717</v>
+        <v>52.7299339968741</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.72418335084143</v>
+        <v>16.61162583539341</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>38.17733037468965</v>
+        <v>39.89876810564444</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.62783730818899</v>
+        <v>48.69257876440736</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.96918809250931</v>
+        <v>32.88310296420379</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>41.46483624644848</v>
+        <v>52.36058941446643</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.51137373883853</v>
+        <v>59.11348052466452</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>40.95168115380959</v>
+        <v>60.36756912861058</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>46.25403639399609</v>
+        <v>69.97530602183143</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>49.01453857392556</v>
+        <v>75.87532559126041</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.47678381857479</v>
+        <v>34.64426362181477</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.99426602766383</v>
+        <v>62.48296443872893</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>50.68253187089188</v>
+        <v>71.41977879867694</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.05650608475042</v>
+        <v>46.79844010476462</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.5649893379563</v>
+        <v>45.76473194085182</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>37.77268438000007</v>
+        <v>54.13583907946602</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.49395428553971</v>
+        <v>58.80446763957544</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>30.16095079489309</v>
+        <v>22.34703292787851</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>38.5852266516237</v>
+        <v>47.63901575219766</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.24011100974069</v>
+        <v>55.37069173242551</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.36381176415202</v>
+        <v>18.29711078882985</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.3643236258379</v>
+        <v>46.89839628428753</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.61612302617773</v>
+        <v>54.2118156954737</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.91033943360602</v>
+        <v>18.62593917532719</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.3616875696567</v>
+        <v>42.39200618872182</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40.81035494752393</v>
+        <v>51.25875698565851</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.15746712911789</v>
+        <v>34.8626905625337</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.65165032130978</v>
+        <v>54.76420196853287</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.69664616701021</v>
+        <v>61.58821437525121</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>41.13618563732114</v>
+        <v>62.94120604768206</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>46.43658815399409</v>
+        <v>72.5999484178769</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>49.19511524246503</v>
+        <v>78.64128376559242</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.65825876271445</v>
+        <v>36.8371918924005</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>47.1728613009975</v>
+        <v>65.22842554094242</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.85839494833303</v>
+        <v>74.25836921666519</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.61379964631028</v>
+        <v>39.58705576455903</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.1264360374824</v>
+        <v>36.40724999512686</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.33794229092553</v>
+        <v>44.55682754703547</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>40.06171237632222</v>
+        <v>49.48333197863936</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.72935100121775</v>
+        <v>14.03395096819787</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.15950821558021</v>
+        <v>37.76446184590101</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.81829996270696</v>
+        <v>46.33415229438997</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.9493433189724</v>
+        <v>12.28546290629124</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.95317330912976</v>
+        <v>39.5209542431426</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.20748890948374</v>
+        <v>47.54207657034714</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.4702909187919</v>
+        <v>10.79195847975515</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.92525962353904</v>
+        <v>33.20477903930669</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.37670606486424</v>
+        <v>42.84600343828217</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.71337405616728</v>
+        <v>26.28785723035236</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.21048262461765</v>
+        <v>44.99887053111298</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.25781166402366</v>
+        <v>52.49250510593738</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.70155656890336</v>
+        <v>51.59377971331379</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.00584298259378</v>
+        <v>61.06643931033426</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>48.76706745916762</v>
+        <v>67.42046517993583</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>38.23075278214239</v>
+        <v>26.5431633478069</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>46.75123792309023</v>
+        <v>53.3747119546273</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.44089234605032</v>
+        <v>63.32043071478437</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.53324268336439</v>
+        <v>-6.466209664267261</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>31.53604432137721</v>
+        <v>13.43337265445032</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>33.77459174660108</v>
+        <v>18.8402712700213</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.93087774439178</v>
+        <v>-6.180076920906743</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>33.38574939685679</v>
+        <v>8.047147039304694</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>35.81853589824348</v>
+        <v>15.11652402160729</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>31.95797071617803</v>
+        <v>2.635525809914675</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>36.45380335305835</v>
+        <v>14.47154228842787</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>38.48557554894023</v>
+        <v>19.84554814350555</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.88026368256932</v>
+        <v>17.07809591070117</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>41.18097208999686</v>
+        <v>22.34792932779612</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>43.89632082319618</v>
+        <v>26.36410316195072</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>33.38752826993839</v>
+        <v>-1.602440919178385</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>41.91323359177611</v>
+        <v>15.39659906348932</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>45.5784523499976</v>
+        <v>22.78993649734349</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.5878914700539</v>
+        <v>-9.416311785456056</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.52062637279011</v>
+        <v>12.99350295797883</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.72335913199633</v>
+        <v>20.00966941218568</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.89711043510282</v>
+        <v>-13.17452595536571</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.27553338141557</v>
+        <v>3.939514734817433</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.66933163373235</v>
+        <v>12.52569767815491</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>31.84129891143863</v>
+        <v>-2.227471873779351</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>36.2742379203489</v>
+        <v>11.83054075699996</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.08193005946919</v>
+        <v>0.4434358205834634</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.0961319869736</v>
+        <v>22.54829673399658</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.33597496550436</v>
+        <v>27.60869554223195</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.52426031787236</v>
+        <v>3.601929518704303</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.99148824277248</v>
+        <v>20.00575021065819</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.42565217990439</v>
+        <v>26.67399423283069</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.57390930404751</v>
+        <v>13.19302021873943</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>37.08002085912477</v>
+        <v>26.92414757702978</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>39.11291848590523</v>
+        <v>31.94524160851847</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.4951505501772</v>
+        <v>31.14845973531278</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.80735105805226</v>
+        <v>36.89904131265459</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.52458252443571</v>
+        <v>40.93660003836636</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.98294013749261</v>
+        <v>10.62557474873581</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>42.52760533060817</v>
+        <v>30.13903873846981</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>46.19502305860392</v>
+        <v>37.05609283965072</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.12757798219396</v>
+        <v>0.1686508875878232</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.07155620390608</v>
+        <v>24.99472941380258</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.27560036463967</v>
+        <v>31.79672216004338</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.48082759399232</v>
+        <v>-0.368331185557409</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.87143679929502</v>
+        <v>19.14035673868555</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.26663031709499</v>
+        <v>27.46386849167995</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.89028310860679</v>
+        <v>27.65233065902042</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.26022633688064</v>
+        <v>0.2922032971167781</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>32.27278258093553</v>
+        <v>22.78589474862889</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.51097976335411</v>
+        <v>27.94172078693699</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.71246500529917</v>
+        <v>4.321699036804876</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.17788410966384</v>
+        <v>21.17958235237068</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.61024655602093</v>
+        <v>27.92644229895794</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.76433359347211</v>
+        <v>13.89487784691388</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.26897348343017</v>
+        <v>28.02528781032549</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.30036143851283</v>
+        <v>33.12126731798466</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.68188318454763</v>
+        <v>32.45427107625782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.99211396889508</v>
+        <v>38.28166090170426</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.70743283302339</v>
+        <v>42.45875233540929</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.16668774621661</v>
+        <v>11.54188755709673</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.70845231630862</v>
+        <v>31.57905506155117</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>46.37319182018267</v>
+        <v>38.59603171194846</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.30353829142322</v>
+        <v>0.5679416098057501</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.24589437083116</v>
+        <v>25.81606008097417</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.44832878892307</v>
+        <v>32.73479963282409</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.66660872791878</v>
+        <v>0.9930566871742172</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.05543516728923</v>
+        <v>20.9893400475989</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>36.44886653695966</v>
+        <v>29.41339591382244</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.63518340082662</v>
+        <v>12.86959389922727</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.07681020287873</v>
+        <v>29.43403933721135</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.84505801109481</v>
+        <v>-3.25962297031807</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.86105278099663</v>
+        <v>18.00322835387024</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.10157599644285</v>
+        <v>23.89243215826802</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.2715798040752</v>
+        <v>-0.5129636220904992</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.74075925547019</v>
+        <v>15.11336285919684</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.17568719341111</v>
+        <v>22.66744022925465</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.31930970773924</v>
+        <v>8.399973858662339</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.82698840640469</v>
+        <v>21.44963650106961</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.86053221698126</v>
+        <v>27.24781718861409</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.24613939870408</v>
+        <v>24.45561134333106</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.5603973891889</v>
+        <v>30.06399783492043</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.27813905494484</v>
+        <v>34.54472877696861</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.73790631028736</v>
+        <v>4.488424231338403</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.28577662542433</v>
+        <v>23.11638125924953</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>45.95431796224749</v>
+        <v>31.07578571915168</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.89440605181689</v>
+        <v>-4.450030210638687</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.84015975407264</v>
+        <v>19.46996822801134</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>34.04485780358283</v>
+        <v>27.04067013621719</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.23201556053182</v>
+        <v>-5.600493025124781</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.62455855635076</v>
+        <v>13.07209437129961</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.02048629351594</v>
+        <v>22.2139674378415</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.19651360323239</v>
+        <v>5.516913085238251</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.64114357608403</v>
+        <v>20.92382107132374</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.27301685994512</v>
+        <v>18.50027992294817</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.69569327726838</v>
+        <v>15.04271307320672</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.92088612725851</v>
+        <v>22.27433355514346</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>43.59087646782997</v>
+        <v>27.42396018087857</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.24523341937363</v>
+        <v>-5.150605531934918</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.65053200392467</v>
+        <v>15.56500501716095</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>45.25949302731865</v>
+        <v>24.34116656013375</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.42624931211305</v>
+        <v>-6.162832822825443</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>38.42177908248549</v>
+        <v>18.37958758506904</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>40.64806676363857</v>
+        <v>26.57932752192161</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.03471288816449</v>
+        <v>-9.772332066536972</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>40.48206234935188</v>
+        <v>9.83967413037697</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>42.90183960390431</v>
+        <v>19.65263560719274</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.27213353898917</v>
+        <v>3.581519649881528</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>43.76472175608164</v>
+        <v>19.82283873918991</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>45.78625480197312</v>
+        <v>27.52283163361253</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.15959814699629</v>
+        <v>26.47946898647768</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>48.47714661386344</v>
+        <v>34.94688014902785</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>51.18450017864433</v>
+        <v>41.56954023977814</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.66184683784923</v>
+        <v>3.626682606730082</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.1611425076235</v>
+        <v>27.17510469970961</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>52.801455468204</v>
+        <v>37.44063893907361</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.89020195997579</v>
+        <v>34.09260340188943</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.30057254051151</v>
+        <v>32.49396068551069</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.53710526182525</v>
+        <v>40.22846803884599</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.20899322542919</v>
+        <v>45.455994003914</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.83096322016412</v>
+        <v>10.34462457182823</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.2549573353585</v>
+        <v>33.83633388525117</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.86614607305306</v>
+        <v>42.27302183109404</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.98010100785463</v>
+        <v>6.903580395423209</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.98692408184507</v>
+        <v>33.93249192223492</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.21441775903372</v>
+        <v>41.836518176622</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.63288399877872</v>
+        <v>6.829080782131118</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.09247223659771</v>
+        <v>28.90151687601035</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.51352938835308</v>
+        <v>38.36784317101543</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.8929632602836</v>
+        <v>21.21498036250502</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.39573146888874</v>
+        <v>39.5974456127866</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.41831253965177</v>
+        <v>46.99571967660923</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.77922014799237</v>
+        <v>47.96460017285906</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.10814655791198</v>
+        <v>56.92334784651339</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>51.81724392242923</v>
+        <v>63.58956253606559</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>41.26202811930589</v>
+        <v>23.04570187467696</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>49.7801076641788</v>
+        <v>49.44547948639303</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>53.4224555195494</v>
+        <v>59.28226373837124</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.0752525544147</v>
+        <v>35.9689246426289</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.4849220619325</v>
+        <v>34.42372815107956</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.71951656213055</v>
+        <v>42.22158718907805</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.3895361859265</v>
+        <v>47.60704403978428</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.01237622094497</v>
+        <v>11.90005659376294</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.43351158933902</v>
+        <v>35.95260834927196</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>46.04207958647697</v>
+        <v>44.51475054973118</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.15366514905302</v>
+        <v>8.424225993225818</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39.15882276651394</v>
+        <v>35.88000169519308</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.38465706184772</v>
+        <v>43.8724231209187</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.81606158100021</v>
+        <v>9.39149318677627</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.27381821085731</v>
+        <v>31.95217941194481</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.69305931060826</v>
+        <v>41.49081580225011</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.07820552992283</v>
+        <v>23.77954133845104</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>44.57948048197488</v>
+        <v>42.59349594540886</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.60053995860245</v>
+        <v>50.06208512168779</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.96076924579083</v>
+        <v>51.1026051119083</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>49.28768386335661</v>
+        <v>60.11476846546739</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>51.99483441224423</v>
+        <v>66.92109489643498</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>41.44062033860892</v>
+        <v>25.79057031179685</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>49.95577733931768</v>
+        <v>52.75191451963497</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>53.59542542199966</v>
+        <v>62.68187973300149</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.64168375589013</v>
+        <v>28.08006557424032</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.05536074822518</v>
+        <v>24.36142175201863</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.29392784240445</v>
+        <v>31.95508970080662</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.96629333349529</v>
+        <v>37.62376180830726</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.58962866621327</v>
+        <v>2.889191647953222</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.01679811148945</v>
+        <v>25.41858601429313</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.62906715397338</v>
+        <v>34.83616700645395</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.7461927324177</v>
+        <v>1.686447209144852</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.75477268560385</v>
+        <v>27.80427291026177</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.98299248316057</v>
+        <v>36.51327510982195</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.38349959405851</v>
+        <v>0.8425833121786717</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>40.84499630809773</v>
+        <v>22.0770721420502</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.26687071350976</v>
+        <v>32.40216787204114</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.64173017015479</v>
+        <v>14.46041417575109</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.14603428783403</v>
+        <v>32.10906273170307</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.1693040928511</v>
+        <v>40.25749637962433</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.53363374618555</v>
+        <v>39.02113376177781</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.86459473798534</v>
+        <v>47.86097431560076</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>51.57428249535168</v>
+        <v>55.00062917851879</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>41.02050634914415</v>
+        <v>14.76764180041789</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.541707975911</v>
+        <v>40.20281549692463</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>53.18526049737493</v>
+        <v>51.06158782209677</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.00867691275386</v>
+        <v>-1.448943686104109</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.00031652217112</v>
+        <v>19.17016798026794</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>37.2176045530783</v>
+        <v>24.73370216701424</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.5634180409689</v>
+        <v>-0.362985721916921</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>37.00619347468824</v>
+        <v>14.67681147058712</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>39.41550961616365</v>
+        <v>21.92196082881305</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.6477142629243</v>
+        <v>8.786594561884701</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.13423746592802</v>
+        <v>21.33659427125669</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.14650342402555</v>
+        <v>26.86633472599127</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.49505159862534</v>
+        <v>24.14544456458127</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>44.78553818944879</v>
+        <v>29.74997510859135</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>47.47167583726436</v>
+        <v>33.82538713662667</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.93430605764339</v>
+        <v>4.855225521166393</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>45.43793194200903</v>
+        <v>22.7488602491534</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>49.06749746029145</v>
+        <v>30.3597053796994</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.05921221067931</v>
+        <v>-1.90129795761278</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.98114978343136</v>
+        <v>21.25709074775938</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.16283199970019</v>
+        <v>28.36928336224322</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.52538457405613</v>
+        <v>-4.789456859365433</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.89210255340179</v>
+        <v>13.16986510444574</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>39.26265664583372</v>
+        <v>21.86133854629069</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.52734598926364</v>
+        <v>6.587312661282112</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.95129187062655</v>
+        <v>21.38770936575004</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.55613777457771</v>
+        <v>5.756931905125711</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.55913747025672</v>
+        <v>28.58628635681226</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.77769185063713</v>
+        <v>33.80118475926275</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.15542701904658</v>
+        <v>9.72168541364011</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.61051623360773</v>
+        <v>26.94439762394316</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>40.02117705959582</v>
+        <v>33.78605227853858</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.26218513162969</v>
+        <v>19.65383281254486</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.7589523427572</v>
+        <v>34.10456537305788</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.77231727605265</v>
+        <v>39.2795773318763</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.10844088973567</v>
+        <v>38.51515221009014</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.41037496441865</v>
+        <v>44.60154863310324</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>48.09834703749154</v>
+        <v>48.69270245259924</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>37.5282731981294</v>
+        <v>17.37478671531786</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.05079090320483</v>
+        <v>37.78918111102558</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>49.68250280814541</v>
+        <v>44.92210886119062</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.59775962868389</v>
+        <v>7.996299731476181</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.53090105624974</v>
+        <v>33.57568467036394</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>37.71386524464846</v>
+        <v>40.46828964468759</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.10782001438596</v>
+        <v>8.33286462656498</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.48668253250074</v>
+        <v>28.6928887676704</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.85859890176327</v>
+        <v>37.11548397526152</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.5659305341097</v>
+        <v>37.53744628706664</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>30.73120431894817</v>
+        <v>5.66906617288284</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.73256082146724</v>
+        <v>28.88097591175131</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>37.94947920584579</v>
+        <v>34.18826936237559</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.34023615058991</v>
+        <v>10.49842702611222</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.79351946880339</v>
+        <v>28.16843700707045</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>40.20238961290033</v>
+        <v>35.08535631412537</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.44914316620073</v>
+        <v>20.41306423842388</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>40.94444063125809</v>
+        <v>35.25705633401115</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>42.95630504997412</v>
+        <v>40.50411193517936</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.2917637020542</v>
+        <v>39.86724200514655</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.59173084083506</v>
+        <v>46.02802729093462</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.27780001806743</v>
+        <v>50.25546331094552</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.70868138260623</v>
+        <v>18.34099500977554</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>46.22830512901673</v>
+        <v>39.27144677620328</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.85735463805679</v>
+        <v>46.500504316006</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.77051514420916</v>
+        <v>8.440377571160038</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.70203678081641</v>
+        <v>34.43512185659063</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.88340079433691</v>
+        <v>41.44095430800488</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.29023164814271</v>
+        <v>9.731574033300484</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.66731417021194</v>
+        <v>30.57197449320457</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.03747894948602</v>
+        <v>39.09124727845035</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.31641842441209</v>
+        <v>22.04375273318249</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.74901961477745</v>
+        <v>39.34958854292441</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.32438579114875</v>
+        <v>1.987610579573353</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.32919754404853</v>
+        <v>23.96900592618955</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.54841293890624</v>
+        <v>30.01103159276203</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.9081599902808</v>
+        <v>5.531525026081596</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>37.36522185707483</v>
+        <v>21.97002432638753</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.77662552071059</v>
+        <v>29.69593717884543</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.0131148157201</v>
+        <v>14.78787111551473</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.51146762984619</v>
+        <v>28.55101777030367</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.52546090145134</v>
+        <v>34.50170701687502</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.86487634516365</v>
+        <v>31.75449513049365</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.16888822125431</v>
+        <v>37.69836138134281</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.85734857977084</v>
+        <v>42.23196977733767</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.28856847753614</v>
+        <v>11.17304142431359</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.81431951098391</v>
+        <v>30.69490915212697</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>49.44712345468954</v>
+        <v>38.86750273430187</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.36965804759382</v>
+        <v>3.295051475928865</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.30459386215365</v>
+        <v>27.96249444599463</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.48819318242577</v>
+        <v>35.62274583686401</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.86436896821371</v>
+        <v>3.009731915760018</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.24518605113065</v>
+        <v>22.52699830995305</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>39.61781597889033</v>
+        <v>31.76738057238146</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.88666414544552</v>
+        <v>14.56625752929714</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>40.32228486983837</v>
+        <v>30.71488754702778</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>41.93075565980929</v>
+        <v>28.15444925583436</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.3071500992294</v>
+        <v>24.72191557419343</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>44.52256878718542</v>
+        <v>32.28205965266788</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>47.16365913775591</v>
+        <v>37.44829567348944</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.78846612359443</v>
+        <v>3.847586006661416</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.17231805003096</v>
+        <v>25.49363892343885</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>48.74595359260793</v>
+        <v>34.41011510781964</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.59454692796263</v>
+        <v>-0.1839734661765284</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>41.57784759885505</v>
+        <v>25.02602035170376</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>43.78345182778848</v>
+        <v>33.34690891259874</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.34693323771353</v>
+        <v>-2.937888430266028</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>43.78104606464622</v>
+        <v>17.43453862594167</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>46.17800440653113</v>
+        <v>27.38013460181905</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.63248614284657</v>
+        <v>10.73833461594604</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>47.11479094352769</v>
+        <v>27.64738667262158</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>49.11735796684238</v>
+        <v>35.46901964059397</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>46.4500744098435</v>
+        <v>34.45210574952272</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>51.7557512247773</v>
+        <v>43.21777866945668</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>54.43458464649109</v>
+        <v>49.86693432209449</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.89185673328321</v>
+        <v>10.98646482012986</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>52.36753471439713</v>
+        <v>35.37381317059748</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>55.97319666916147</v>
+        <v>45.80710026621689</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.54650756710024</v>
+        <v>44.06977182751872</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.91062662124789</v>
+        <v>42.47800326838765</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>45.13734140469543</v>
+        <v>50.54124010088168</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.78028095358478</v>
+        <v>55.77729090502142</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.37284331257866</v>
+        <v>19.63823106787937</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.77532395889531</v>
+        <v>44.06631870445155</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.35113431544212</v>
+        <v>52.63766105869984</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.14675762369811</v>
+        <v>13.09122983009588</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.14131085619152</v>
+        <v>40.7915535012378</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.34809455556332</v>
+        <v>48.8133849995463</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.94330286524572</v>
+        <v>13.86971236701629</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.38961147238973</v>
+        <v>36.70761442012466</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.78781988644858</v>
+        <v>46.30261999141749</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.25140792164879</v>
+        <v>28.58030220984115</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>47.7438574108823</v>
+        <v>47.6350587114059</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.7474484307902</v>
+        <v>55.15198475039844</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>47.06776576912353</v>
+        <v>56.1258331858546</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.38477499189925</v>
+        <v>65.38327342129084</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.06530757016768</v>
+        <v>72.06868058236155</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.49017060297278</v>
+        <v>30.58698621907063</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>52.98456360758078</v>
+        <v>57.83090970087596</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.59221233847826</v>
+        <v>67.83217716042671</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.72812908974304</v>
+        <v>45.97324707148228</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.09159225564831</v>
+        <v>44.43279548955616</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.31637140694315</v>
+        <v>52.55670513308156</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.95745204561297</v>
+        <v>57.94705643683369</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>37.55094233796535</v>
+        <v>21.22262742633512</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.95057064899999</v>
+        <v>46.20337938430994</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>37.3172530250867</v>
+        <v>14.6450057149602</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.31014396021627</v>
+        <v>42.76571050621249</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.51527836235396</v>
+        <v>50.87260728766211</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.12325408589414</v>
+        <v>16.45638404678812</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.56773474637212</v>
+        <v>39.7754572015384</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>46.96413820297913</v>
+        <v>49.43909342516409</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>43.43335790232948</v>
+        <v>31.16854165429166</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>47.9243166926317</v>
+        <v>50.64852606772309</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>49.92639551500623</v>
+        <v>58.23264573028061</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.24607657678913</v>
+        <v>59.2751462809682</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>52.56107771502487</v>
+        <v>68.58340016755831</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>55.23967377937877</v>
+        <v>75.40534378372782</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>44.66559097999756</v>
+        <v>33.34753059550152</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>53.15706905678087</v>
+        <v>61.1450478387128</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.76203426766571</v>
+        <v>71.23534982808285</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>42.3034658094729</v>
+        <v>37.96246804502566</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.67080860005132</v>
+        <v>34.2677304530057</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>44.8995778237434</v>
+        <v>42.19004204657728</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.54297348692785</v>
+        <v>47.86740272956492</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>37.1367863213385</v>
+        <v>12.10927416514534</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.54247000158412</v>
+        <v>35.56821256644159</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.119329834643</v>
+        <v>45.11858081439878</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.91777068844581</v>
+        <v>7.832121571076673</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.91409966230052</v>
+        <v>34.61507993517579</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.12158947264355</v>
+        <v>43.43932869914489</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.69912231624234</v>
+        <v>7.83562484347765</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>44.14736019354312</v>
+        <v>29.82838408849696</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.54636386875958</v>
+        <v>40.27994600592031</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.00548919356635</v>
+        <v>21.78243144632147</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.49949272625592</v>
+        <v>40.09686730566783</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.50375395212588</v>
+        <v>48.36180204581491</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.82741468617754</v>
+        <v>47.1491912352572</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.14647800440614</v>
+        <v>56.28694437285852</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.82757817867406</v>
+        <v>63.44541313606561</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.25377088008672</v>
+        <v>22.2805212650128</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.75131392751099</v>
+        <v>48.55215532040781</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>56.36013450044035</v>
+        <v>59.57176882060239</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-61.46066831552089</v>
+        <v>-2.863365253429681</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-56.37983508091695</v>
+        <v>16.60092976363247</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-54.09797587439418</v>
+        <v>21.37118436149727</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-63.4415616165942</v>
+        <v>-2.235769309534245</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-57.90262185603795</v>
+        <v>11.82631489368886</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-55.42268506982784</v>
+        <v>18.20032289944442</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-61.31564872147659</v>
+        <v>6.914410108827443</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>-56.75092879089753</v>
+        <v>18.66495042136408</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>-54.67994616286914</v>
+        <v>23.43328806293869</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-55.2221011462744</v>
+        <v>21.43677766418745</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-49.85680538142331</v>
+        <v>26.74687275719143</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-47.07939205835453</v>
+        <v>30.19303352078882</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-55.13443779378754</v>
+        <v>3.301880631125524</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-46.4750379334349</v>
+        <v>20.09839333317307</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-42.73870329351598</v>
+        <v>26.68667090380417</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-60.52041583918911</v>
+        <v>0.3853195510472283</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-55.51046848752476</v>
+        <v>22.58409344752345</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-53.26503028580103</v>
+        <v>28.71264872532099</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-62.55818832339621</v>
+        <v>-2.642493404259998</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-57.09656487757833</v>
+        <v>14.52847648119309</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-54.65629645931325</v>
+        <v>22.15677412872363</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-60.49655844620638</v>
+        <v>8.968053713443485</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>-55.99545214476392</v>
+        <v>23.14855670268452</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-60.99254320641207</v>
+        <v>2.711878333841362</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-55.90013276015016</v>
+        <v>24.28865408841482</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-53.61697748117457</v>
+        <v>28.71951243176026</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-62.93162787105213</v>
+        <v>6.034233718271576</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-57.38014002766722</v>
+        <v>22.17900484381511</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-54.89882534939925</v>
+        <v>28.16385236094864</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-60.78474897148077</v>
+        <v>15.88716622656649</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-56.20959233493748</v>
+        <v>29.45329542002951</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-54.13748593125959</v>
+        <v>33.87901144124497</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-54.69014661636483</v>
+        <v>33.76157450219547</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-49.3131625262393</v>
+        <v>39.53578682067157</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>-46.53385266166043</v>
+        <v>43.00117615185231</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-54.61968169258053</v>
+        <v>13.88497211757742</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-45.94102464610806</v>
+        <v>33.0897201271174</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-42.20248259282097</v>
+        <v>39.21483696118402</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-60.06055459899584</v>
+        <v>8.61577972407024</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-55.03918945598279</v>
+        <v>33.13597740165455</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-52.79243871713659</v>
+        <v>39.04571902478918</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-62.05716163341718</v>
+        <v>8.627999494569309</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>-56.58316268607005</v>
+        <v>28.09789026470218</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>-54.14149790898254</v>
+        <v>35.46283950563429</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-59.97491984594198</v>
+        <v>21.10097900617109</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-55.46351967952454</v>
+        <v>37.27780388785317</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-60.75809628435501</v>
+        <v>2.231882243330347</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-55.66735178526402</v>
+        <v>24.17153569179716</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-53.38587785766464</v>
+        <v>28.69217886480762</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-62.68506075497957</v>
+        <v>6.362041551056684</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-57.13540313631118</v>
+        <v>22.93113272284702</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-54.65592900721533</v>
+        <v>28.98978394054826</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-60.53470999886731</v>
+        <v>16.18000637876713</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-55.96104262362907</v>
+        <v>30.11962194731867</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-53.8904789130213</v>
+        <v>34.61609441032746</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>-54.44515862640235</v>
+        <v>34.63474170801052</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-49.07015002766681</v>
+        <v>40.47882549965936</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-46.29279871863505</v>
+        <v>44.07588542385272</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-54.37936110532168</v>
+        <v>14.39275788357873</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-45.70364025664429</v>
+        <v>34.08765253108044</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-41.96783291083739</v>
+        <v>40.30659627560908</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-59.82902496582388</v>
+        <v>8.621209923597767</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-54.80930214424363</v>
+        <v>33.53489306220375</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-52.56419598115494</v>
+        <v>39.55486177126714</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-61.81362100685952</v>
+        <v>9.530792607396549</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-56.34142613137216</v>
+        <v>29.45596184205976</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-53.90156176846793</v>
+        <v>36.91581398505506</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-59.72794369021425</v>
+        <v>21.97297034612207</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-55.21801146910464</v>
+        <v>38.55144191011991</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-61.31201730066245</v>
+        <v>-0.3803786212271731</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-56.21776475057167</v>
+        <v>20.37816824941175</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-53.93387239652445</v>
+        <v>25.59220268955936</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-63.27022777188465</v>
+        <v>2.547159937988308</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-57.71673817209036</v>
+        <v>17.93631501491785</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-55.23459689874319</v>
+        <v>24.75678842710735</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-61.12709475786208</v>
+        <v>11.76881161154613</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-56.55033089164662</v>
+        <v>24.67196984676853</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-54.47752503845105</v>
+        <v>29.83119116248372</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-55.02490247005399</v>
+        <v>27.84572461898352</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-49.64583154035275</v>
+        <v>33.47587348618304</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-46.86594657343063</v>
+        <v>37.34752518658554</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-54.94800601887927</v>
+        <v>8.484150408993226</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-46.26606013578017</v>
+        <v>26.82745502674138</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-42.52630225395258</v>
+        <v>33.93545456370407</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-60.37543536230292</v>
+        <v>4.582740694046436</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-55.35224540817582</v>
+        <v>28.21969634537891</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>-53.10478458329368</v>
+        <v>34.85647005694005</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-62.39096371338617</v>
+        <v>4.004236601332853</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>-56.91498062422254</v>
+        <v>22.65821155945979</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-54.47251974712016</v>
+        <v>30.79604917337981</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-60.31240852384856</v>
+        <v>15.75447286614895</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>-55.79941540895054</v>
+        <v>31.2202086541284</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>-53.95802908709086</v>
+        <v>28.9859716619782</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-54.49340262855922</v>
+        <v>26.27856387356541</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>-49.20434174099638</v>
+        <v>33.61843820548209</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>-46.47332747152441</v>
+        <v>37.95895562385451</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>-54.38908745249073</v>
+        <v>6.480434712391634</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>-45.85136987487407</v>
+        <v>27.19776837089723</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>-42.17227400247829</v>
+        <v>34.88377460039827</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-51.05607568026309</v>
+        <v>4.041755528661028</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>-45.98429732609596</v>
+        <v>28.35104338328315</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>-43.71559327101555</v>
+        <v>35.63154520274274</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>-52.68154425224355</v>
+        <v>0.918961624759298</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>-47.15215275830725</v>
+        <v>20.54930601513711</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>-44.68613060053288</v>
+        <v>29.37851174308284</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-50.26592089303149</v>
+        <v>14.90525184799371</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>-45.70600543748775</v>
+        <v>31.2389957116317</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>-43.6460548910205</v>
+        <v>38.08525572902575</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>-44.28804382208031</v>
+        <v>37.48467136464221</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-38.90669100254257</v>
+        <v>46.03493553239404</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>-36.13819278169564</v>
+        <v>51.76705715855597</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-44.30496596414106</v>
+        <v>15.17709674726439</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-35.67592169204234</v>
+        <v>38.69909502306591</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-31.9658634418461</v>
+        <v>47.81571787266274</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-53.42495779455363</v>
+        <v>42.88485642869289</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-53.97070835276649</v>
+        <v>41.95965793866721</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>-48.67011339202826</v>
+        <v>49.78720520964456</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>-45.93718803366247</v>
+        <v>54.19947314511112</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>-53.88328659296369</v>
+        <v>20.30933455990359</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-45.32657991872789</v>
+        <v>43.69340544493387</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>-41.64524705665147</v>
+        <v>51.03986937166749</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-50.57934998799853</v>
+        <v>15.58446248771988</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>-52.16325409644631</v>
+        <v>15.8082773669029</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>-46.62143649192221</v>
+        <v>37.80237312395508</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>-44.15413699196073</v>
+        <v>46.28572800950992</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-49.72648308951298</v>
+        <v>30.74419012872593</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>-45.15623339392791</v>
+        <v>49.13759724555054</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-43.0952390409615</v>
+        <v>55.68244004080226</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>-43.74777987521206</v>
+        <v>57.00835641718487</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-38.35485879647915</v>
+        <v>66.03561073940446</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>-35.58460522518646</v>
+        <v>71.80201808471362</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-43.78195639679365</v>
+        <v>32.74385121388602</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>-35.13383897668669</v>
+        <v>59.00753347776663</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-31.42174188249257</v>
+        <v>67.69542150827581</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>-53.18095842914553</v>
+        <v>44.24813835827062</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-53.72870582288968</v>
+        <v>43.39028321475909</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>-48.43005466348892</v>
+        <v>51.27433003124575</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-45.69904278243285</v>
+        <v>55.83650656346555</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>-53.64588581861777</v>
+        <v>21.38958685955099</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>-45.09207330983629</v>
+        <v>45.29828479282872</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>-41.41341657055187</v>
+        <v>52.76313789512274</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-50.35182789830058</v>
+        <v>16.66637185437057</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>-45.27026803439838</v>
+        <v>43.76530647246266</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>-43.0020555007669</v>
+        <v>50.82827131273747</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>-51.92400112821467</v>
+        <v>17.87090336022243</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>-46.38403572980883</v>
+        <v>40.32214843586883</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>-43.91859145874891</v>
+        <v>48.87125212203287</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-49.48396244948603</v>
+        <v>32.78537328671307</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>-44.9152229728307</v>
+        <v>51.58321092519267</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>-42.85578332139664</v>
+        <v>58.19258870469591</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>-43.51025962674582</v>
+        <v>59.60669189416321</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>-38.11935664378763</v>
+        <v>68.68189590432365</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>-35.35109602073221</v>
+        <v>74.57965848444969</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-43.54901048016657</v>
+        <v>34.9747356380888</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>-34.90384960372266</v>
+        <v>61.76534146108089</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>-31.1945089380374</v>
+        <v>70.53819666451508</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>-53.76017954032865</v>
+        <v>37.50370611936479</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>-54.30073530532765</v>
+        <v>34.58967443069275</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>-48.99807644488237</v>
+        <v>42.2735290292913</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>-46.2646091393452</v>
+        <v>47.08877441806118</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>-54.20700831840126</v>
+        <v>13.56816453580027</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>-45.64704244845277</v>
+        <v>36.01311369567689</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>-41.96453804251344</v>
+        <v>44.28543138579141</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>-50.89271124119931</v>
+        <v>11.03199420484535</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>-45.8076635160829</v>
+        <v>36.84696996303585</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>-43.53697230125209</v>
+        <v>44.58880089745929</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-52.49527724899255</v>
+        <v>10.52440336849441</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>-46.95150447345753</v>
+        <v>31.7041648193153</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>-44.48332450011344</v>
+        <v>40.99761448205727</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-50.06211326832511</v>
+        <v>24.73771633055734</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>-45.49029040407687</v>
+        <v>42.41725179553514</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>-43.42855352877299</v>
+        <v>49.66997689344966</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>-44.07583974638226</v>
+        <v>48.93266250516929</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>-38.68085661307795</v>
+        <v>57.83972968110139</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>-35.90994764801191</v>
+        <v>64.04141621491951</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>-44.1035898928169</v>
+        <v>25.28839424936723</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>-35.45227272508801</v>
+        <v>50.61439476866821</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>-31.73887793317243</v>
+        <v>60.26647189829743</v>
       </c>
     </row>
   </sheetData>
